--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Eng</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H2">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I2">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J2">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>620.0116009201239</v>
+        <v>685.8191750148101</v>
       </c>
       <c r="R2">
-        <v>2480.046403680496</v>
+        <v>2743.27670005924</v>
       </c>
       <c r="S2">
-        <v>0.03652754422323446</v>
+        <v>0.1053805683981588</v>
       </c>
       <c r="T2">
-        <v>0.0250077339811702</v>
+        <v>0.07581404624529957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H3">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I3">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J3">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>99.700743605537</v>
+        <v>119.06885366989</v>
       </c>
       <c r="R3">
-        <v>598.204461633222</v>
+        <v>714.41312201934</v>
       </c>
       <c r="S3">
-        <v>0.005873798676889255</v>
+        <v>0.01829570232996073</v>
       </c>
       <c r="T3">
-        <v>0.006032039570175726</v>
+        <v>0.01974374275473323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H4">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I4">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J4">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>19.07942334472683</v>
+        <v>9.417064345051667</v>
       </c>
       <c r="R4">
-        <v>114.476540068361</v>
+        <v>56.50238607031</v>
       </c>
       <c r="S4">
-        <v>0.001124050709606168</v>
+        <v>0.001446993069714258</v>
       </c>
       <c r="T4">
-        <v>0.00115433278057452</v>
+        <v>0.001561517476677343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H5">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I5">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J5">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>23.61870220977875</v>
+        <v>53.43838910382</v>
       </c>
       <c r="R5">
-        <v>94.47480883911501</v>
+        <v>213.75355641528</v>
       </c>
       <c r="S5">
-        <v>0.001391479108105019</v>
+        <v>0.008211155393724476</v>
       </c>
       <c r="T5">
-        <v>0.0009526438230608484</v>
+        <v>0.005907359622460008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H6">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I6">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J6">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>379.9154251958595</v>
+        <v>5.601766812873334</v>
       </c>
       <c r="R6">
-        <v>2279.492551175157</v>
+        <v>33.61060087724</v>
       </c>
       <c r="S6">
-        <v>0.02238244812570613</v>
+        <v>0.0008607478359901306</v>
       </c>
       <c r="T6">
-        <v>0.0229854341625421</v>
+        <v>0.0009288729967284573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H7">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I7">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J7">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>20.21477404676367</v>
+        <v>16.75589071584333</v>
       </c>
       <c r="R7">
-        <v>121.288644280582</v>
+        <v>100.53534429506</v>
       </c>
       <c r="S7">
-        <v>0.001190939091881572</v>
+        <v>0.002574651383310873</v>
       </c>
       <c r="T7">
-        <v>0.00122302314448804</v>
+        <v>0.002778425975589046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J8">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N8">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O8">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P8">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q8">
-        <v>3047.029421194751</v>
+        <v>2822.192806514304</v>
       </c>
       <c r="R8">
-        <v>18282.17652716851</v>
+        <v>16933.15683908583</v>
       </c>
       <c r="S8">
-        <v>0.1795135796927235</v>
+        <v>0.4336482456519972</v>
       </c>
       <c r="T8">
-        <v>0.1843496986627854</v>
+        <v>0.4679699775271087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J9">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P9">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q9">
-        <v>489.9764756501759</v>
+        <v>489.9764756501761</v>
       </c>
       <c r="R9">
-        <v>4409.788280851583</v>
+        <v>4409.788280851584</v>
       </c>
       <c r="S9">
-        <v>0.02886661694086933</v>
+        <v>0.07528806628165093</v>
       </c>
       <c r="T9">
-        <v>0.04446643098175895</v>
+        <v>0.1218702774857682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J10">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N10">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O10">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P10">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q10">
-        <v>93.76528468908799</v>
+        <v>38.75186378758401</v>
       </c>
       <c r="R10">
-        <v>843.887562201792</v>
+        <v>348.7667740882561</v>
       </c>
       <c r="S10">
-        <v>0.005524115319781049</v>
+        <v>0.00595447543783745</v>
       </c>
       <c r="T10">
-        <v>0.00850940354754726</v>
+        <v>0.00963862680675996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J11">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N11">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O11">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P11">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q11">
-        <v>116.07344187888</v>
+        <v>219.902625669888</v>
       </c>
       <c r="R11">
-        <v>696.44065127328</v>
+        <v>1319.415754019328</v>
       </c>
       <c r="S11">
-        <v>0.006838384596484424</v>
+        <v>0.03378946598400362</v>
       </c>
       <c r="T11">
-        <v>0.007022611558746812</v>
+        <v>0.03646378325228295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J12">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N12">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O12">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P12">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q12">
-        <v>1867.083577822656</v>
+        <v>23.051653524736</v>
       </c>
       <c r="R12">
-        <v>16803.7522004039</v>
+        <v>207.464881722624</v>
       </c>
       <c r="S12">
-        <v>0.1099979062588187</v>
+        <v>0.003542036209328272</v>
       </c>
       <c r="T12">
-        <v>0.1694418960425797</v>
+        <v>0.005733563856994435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J13">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N13">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O13">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P13">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q13">
-        <v>99.34493350105598</v>
+        <v>68.951636185984</v>
       </c>
       <c r="R13">
-        <v>894.1044015095039</v>
+        <v>620.5647256738559</v>
       </c>
       <c r="S13">
-        <v>0.005852836376656137</v>
+        <v>0.01059486651580592</v>
       </c>
       <c r="T13">
-        <v>0.009015768814309509</v>
+        <v>0.01715011934794014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H14">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I14">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J14">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N14">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O14">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P14">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q14">
-        <v>4917.579651995695</v>
+        <v>1506.392387676052</v>
       </c>
       <c r="R14">
-        <v>19670.31860798278</v>
+        <v>6025.569550704207</v>
       </c>
       <c r="S14">
-        <v>0.2897157213558203</v>
+        <v>0.2314669694683499</v>
       </c>
       <c r="T14">
-        <v>0.1983471334823735</v>
+        <v>0.1665245101092037</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H15">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I15">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J15">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P15">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q15">
-        <v>790.7696361097479</v>
+        <v>261.533099849188</v>
       </c>
       <c r="R15">
-        <v>4744.617816658488</v>
+        <v>1569.198599095128</v>
       </c>
       <c r="S15">
-        <v>0.04658763289351916</v>
+        <v>0.04018625859570737</v>
       </c>
       <c r="T15">
-        <v>0.04784270972721767</v>
+        <v>0.04336685947767802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H16">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I16">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J16">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N16">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O16">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P16">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q16">
-        <v>151.3271427060407</v>
+        <v>20.68445234610867</v>
       </c>
       <c r="R16">
-        <v>907.962856236244</v>
+        <v>124.106714076652</v>
       </c>
       <c r="S16">
-        <v>0.00891533140535984</v>
+        <v>0.003178300380986708</v>
       </c>
       <c r="T16">
-        <v>0.009155511582300498</v>
+        <v>0.003429851666132068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H17">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I17">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J17">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N17">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O17">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P17">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q17">
-        <v>187.330122889615</v>
+        <v>117.376686870744</v>
       </c>
       <c r="R17">
-        <v>749.32049155846</v>
+        <v>469.5067474829759</v>
       </c>
       <c r="S17">
-        <v>0.01103642147669412</v>
+        <v>0.01803568991617156</v>
       </c>
       <c r="T17">
-        <v>0.007555829395661494</v>
+        <v>0.0129754341825547</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H18">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I18">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J18">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N18">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O18">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P18">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q18">
-        <v>3013.273238194038</v>
+        <v>12.30420377830133</v>
       </c>
       <c r="R18">
-        <v>18079.63942916423</v>
+        <v>73.825222669808</v>
       </c>
       <c r="S18">
-        <v>0.1775248580856822</v>
+        <v>0.001890620786180508</v>
       </c>
       <c r="T18">
-        <v>0.1823074006393724</v>
+        <v>0.002040256764998404</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H19">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I19">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J19">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N19">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O19">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P19">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q19">
-        <v>160.3320992293213</v>
+        <v>36.80408355822533</v>
       </c>
       <c r="R19">
-        <v>961.9925953759279</v>
+        <v>220.824501349352</v>
       </c>
       <c r="S19">
-        <v>0.009445852039400062</v>
+        <v>0.005655186361121155</v>
       </c>
       <c r="T19">
-        <v>0.009700324510587667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.799402</v>
-      </c>
-      <c r="H20">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J20">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>260.047928</v>
-      </c>
-      <c r="N20">
-        <v>520.0958559999999</v>
-      </c>
-      <c r="O20">
-        <v>0.5333246545957802</v>
-      </c>
-      <c r="P20">
-        <v>0.4360150557860642</v>
-      </c>
-      <c r="Q20">
-        <v>467.9307617390559</v>
-      </c>
-      <c r="R20">
-        <v>2807.584570434335</v>
-      </c>
-      <c r="S20">
-        <v>0.02756780932400192</v>
-      </c>
-      <c r="T20">
-        <v>0.02831048965973509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.799402</v>
-      </c>
-      <c r="H21">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J21">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>41.816914</v>
-      </c>
-      <c r="N21">
-        <v>125.450742</v>
-      </c>
-      <c r="O21">
-        <v>0.08576108022407103</v>
-      </c>
-      <c r="P21">
-        <v>0.1051698675167548</v>
-      </c>
-      <c r="Q21">
-        <v>75.24543868542798</v>
-      </c>
-      <c r="R21">
-        <v>677.2089481688519</v>
-      </c>
-      <c r="S21">
-        <v>0.004433031712793291</v>
-      </c>
-      <c r="T21">
-        <v>0.006828687237602399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.799402</v>
-      </c>
-      <c r="H22">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J22">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.002373666666667</v>
-      </c>
-      <c r="N22">
-        <v>24.007121</v>
-      </c>
-      <c r="O22">
-        <v>0.01641183302072443</v>
-      </c>
-      <c r="P22">
-        <v>0.0201260326943997</v>
-      </c>
-      <c r="Q22">
-        <v>14.39948718054733</v>
-      </c>
-      <c r="R22">
-        <v>129.595384624926</v>
-      </c>
-      <c r="S22">
-        <v>0.0008483355859773696</v>
-      </c>
-      <c r="T22">
-        <v>0.001306784783977416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.799402</v>
-      </c>
-      <c r="H23">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J23">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>9.906257500000001</v>
-      </c>
-      <c r="N23">
-        <v>19.812515</v>
-      </c>
-      <c r="O23">
-        <v>0.02031645243304672</v>
-      </c>
-      <c r="P23">
-        <v>0.01660954367032533</v>
-      </c>
-      <c r="Q23">
-        <v>17.825339558015</v>
-      </c>
-      <c r="R23">
-        <v>106.95203734809</v>
-      </c>
-      <c r="S23">
-        <v>0.00105016725176316</v>
-      </c>
-      <c r="T23">
-        <v>0.001078458892856179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.799402</v>
-      </c>
-      <c r="H24">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J24">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>159.345759</v>
-      </c>
-      <c r="N24">
-        <v>478.037277</v>
-      </c>
-      <c r="O24">
-        <v>0.3267975351065956</v>
-      </c>
-      <c r="P24">
-        <v>0.4007558368220747</v>
-      </c>
-      <c r="Q24">
-        <v>286.727077436118</v>
-      </c>
-      <c r="R24">
-        <v>2580.543696925062</v>
-      </c>
-      <c r="S24">
-        <v>0.01689232263638864</v>
-      </c>
-      <c r="T24">
-        <v>0.02602110597758045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.799402</v>
-      </c>
-      <c r="H25">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J25">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.478567333333332</v>
-      </c>
-      <c r="N25">
-        <v>25.435702</v>
-      </c>
-      <c r="O25">
-        <v>0.01738844461978203</v>
-      </c>
-      <c r="P25">
-        <v>0.02132366351038126</v>
-      </c>
-      <c r="Q25">
-        <v>15.25635101673466</v>
-      </c>
-      <c r="R25">
-        <v>137.307159150612</v>
-      </c>
-      <c r="S25">
-        <v>0.0008988171118442628</v>
-      </c>
-      <c r="T25">
-        <v>0.001384547040996041</v>
+        <v>0.006102774451091084</v>
       </c>
     </row>
   </sheetData>
